--- a/3.results/model_selection/petit_puffin_HR_4_add_spatial_effects.xlsx
+++ b/3.results/model_selection/petit_puffin_HR_4_add_spatial_effects.xlsx
@@ -68,6 +68,12 @@
     <t xml:space="preserve">model</t>
   </si>
   <si>
+    <t xml:space="preserve">beta_log_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_log_bathymetry</t>
+  </si>
+  <si>
     <t xml:space="preserve">beta_mean_CHL</t>
   </si>
   <si>
@@ -77,10 +83,10 @@
     <t xml:space="preserve">beta_mean_SSH</t>
   </si>
   <si>
-    <t xml:space="preserve">beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_mean_autumn_SST</t>
+    <t xml:space="preserve">sd_beta_log_dist_to_shore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_beta_log_bathymetry</t>
   </si>
   <si>
     <t xml:space="preserve">sd_beta_mean_CHL</t>
@@ -90,12 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">sd_beta_mean_SSH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_winter_SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_beta_mean_autumn_SST</t>
   </si>
   <si>
     <t xml:space="preserve">without spatial</t>
@@ -559,85 +559,85 @@
         <v>28</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>125.2</v>
+        <v>321.2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="K2" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>1442</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="L2" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>1439</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>228</v>
-      </c>
       <c r="P2" s="1" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="R2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>2.13</v>
+        <v>-1.36</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>-1</v>
+        <v>-0.67</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1.48</v>
+        <v>2.46</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>-1.42</v>
+        <v>-0.77</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="Z2" s="1" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB2" s="1" t="n">
         <v>0.42</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +645,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.07</v>
+        <v>1.843</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>31.2</v>
+        <v>19.3</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.5</v>
@@ -663,22 +663,22 @@
         <v>0.51</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>453</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>846</v>
@@ -687,43 +687,43 @@
         <v>267</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>2.23</v>
+        <v>-1.49</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-1.04</v>
+        <v>-0.65</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1.76</v>
+        <v>2.42</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-1.65</v>
+        <v>-0.66</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>0.18</v>
+        <v>0.65</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>0.56</v>
+        <v>0.48</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>0.53</v>
+        <v>0.94</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>1.19</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -731,40 +731,40 @@
         <v>30</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1.103</v>
+        <v>4.014</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>48.2</v>
+        <v>18.9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>454</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>846</v>
@@ -773,43 +773,43 @@
         <v>268</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="R4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>2.17</v>
+        <v>-1.53</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>-1.07</v>
+        <v>-0.75</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-1.6</v>
+        <v>-0.69</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.24</v>
+        <v>0.66</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>0.47</v>
+        <v>0.98</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>0.79</v>
+        <v>0.7</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>1.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -817,85 +817,85 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>5.58</v>
+        <v>4.991</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>13.5</v>
+        <v>16.9</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.67</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.22</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>2.27</v>
+        <v>-1.43</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-1.1</v>
+        <v>-0.73</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>1.66</v>
+        <v>2.49</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>-1.52</v>
+        <v>-0.81</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.82</v>
+        <v>0.56</v>
       </c>
       <c r="AB5" s="1" t="n">
-        <v>1.09</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +945,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>J2&lt;757</formula>
+      <formula>J2&lt;751</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
@@ -958,7 +958,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13">
-      <formula>K2&lt;237</formula>
+      <formula>K2&lt;240</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L5">
@@ -971,7 +971,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>L2&lt;458</formula>
+      <formula>L2&lt;456</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M5">
@@ -984,7 +984,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="9">
-      <formula>M2&lt;1444</formula>
+      <formula>M2&lt;1441</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N5">
@@ -997,7 +997,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>N2&lt;756</formula>
+      <formula>N2&lt;752</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O5">
@@ -1010,7 +1010,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>O2&lt;233</formula>
+      <formula>O2&lt;235</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P5">
@@ -1023,7 +1023,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;452</formula>
+      <formula>P2&lt;451</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q5">
@@ -1036,7 +1036,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>Q2&lt;1431</formula>
+      <formula>Q2&lt;1432</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
